--- a/Dashboards-test/INQ.xlsx
+++ b/Dashboards-test/INQ.xlsx
@@ -26,7 +26,7 @@
     <x:definedName name="DatesKDR">'KDR Per Day'!$D$1:$Q$1</x:definedName>
     <x:definedName name="DatesXP">'XP Per Day'!$E$1:$R$1</x:definedName>
     <x:definedName name="PlayersKDR">'KDR Per Day'!$A$2:$Q$17</x:definedName>
-    <x:definedName name="PlayersXP">'XP Per Day'!$A$2:$P$17</x:definedName>
+    <x:definedName name="PlayersXP">'XP Per Day'!$A$2:$R$17</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="191029"/>
   <x:extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <x:si>
     <x:t>Player</x:t>
   </x:si>
@@ -118,43 +118,52 @@
     <x:t>7,0 (7/1)</x:t>
   </x:si>
   <x:si>
+    <x:t>2,5 (136/55)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,1 (8/7)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,4 (56/23)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,7 (10/6)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,0 (0/1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,0 (12/3)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,0 (24/6)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,0 (4/1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,8 (22/8)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,7 (12/7)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,0 (4/2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,6 (8/5)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,6 (3/5)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,0 (2/2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,5 (1/2)</x:t>
+  </x:si>
+  <x:si>
     <x:t>- (/)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,4 (110/46)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,1 (8/7)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,4 (56/23)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,7 (10/6)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0,0 (0/1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,0 (12/3)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,0 (24/6)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,7 (12/7)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,0 (4/2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,6 (8/5)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0,7 (2/3)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,0 (2/2)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -634,10 +643,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C2" s="15" t="n">
-        <x:v>229.626246527776</x:v>
+        <x:v>247.05626190476</x:v>
       </x:c>
       <x:c r="D2" s="15" t="n">
-        <x:v>226766.597208334</x:v>
+        <x:v>227469.869916667</x:v>
       </x:c>
       <x:c r="E2" s="16" t="n">
         <x:v>0</x:v>
@@ -674,6 +683,12 @@
       </x:c>
       <x:c r="P2" s="16" t="n">
         <x:v>579.55283333332</x:v>
+      </x:c>
+      <x:c r="Q2" s="16" t="n">
+        <x:v>48.8788333333214</x:v>
+      </x:c>
+      <x:c r="R2" s="16" t="n">
+        <x:v>654.393875000009</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:146" x14ac:dyDescent="0.25">
@@ -681,7 +696,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C3" s="15" t="n">
-        <x:v>54.9028090277764</x:v>
+        <x:v>47.0595505952369</x:v>
       </x:c>
       <x:c r="D3" s="15" t="n">
         <x:v>531575.150333334</x:v>
@@ -720,6 +735,12 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P3" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q3" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R3" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -728,7 +749,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C4" s="15" t="n">
-        <x:v>17.1249374999995</x:v>
+        <x:v>14.6785178571424</x:v>
       </x:c>
       <x:c r="D4" s="15" t="n">
         <x:v>956436.446958336</x:v>
@@ -767,6 +788,12 @@
         <x:v>150.163916666643</x:v>
       </x:c>
       <x:c r="P4" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q4" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R4" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -775,10 +802,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C5" s="15" t="n">
-        <x:v>2.73830555555954</x:v>
+        <x:v>3.40353571428984</x:v>
       </x:c>
       <x:c r="D5" s="15" t="n">
-        <x:v>896826.356333331</x:v>
+        <x:v>896841.146166664</x:v>
       </x:c>
       <x:c r="E5" s="16" t="n">
         <x:v>0</x:v>
@@ -814,6 +841,12 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P5" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q5" s="16" t="n">
+        <x:v>14.7898333333433</x:v>
+      </x:c>
+      <x:c r="R5" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -822,7 +855,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C6" s="15" t="n">
-        <x:v>0.507378472223839</x:v>
+        <x:v>0.434895833334719</x:v>
       </x:c>
       <x:c r="D6" s="15" t="n">
         <x:v>411507.632625</x:v>
@@ -861,6 +894,12 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P6" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q6" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R6" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -910,6 +949,12 @@
       <x:c r="P7" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="Q7" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R7" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="8" spans="1:146">
       <x:c r="B8" s="14" t="s">
@@ -955,6 +1000,12 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P8" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q8" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R8" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -980,6 +1031,8 @@
       <x:c r="N9" s="16" t="s"/>
       <x:c r="O9" s="16" t="s"/>
       <x:c r="P9" s="16" t="s"/>
+      <x:c r="Q9" s="16" t="s"/>
+      <x:c r="R9" s="16" t="s"/>
     </x:row>
     <x:row r="10" spans="1:146">
       <x:c r="B10" s="14" t="s">
@@ -1027,6 +1080,12 @@
       <x:c r="P10" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="Q10" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R10" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="11" spans="1:146">
       <x:c r="B11" s="14" t="s">
@@ -1074,6 +1133,12 @@
       <x:c r="P11" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="Q11" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R11" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="12" spans="1:146">
       <x:c r="B12" s="14" t="s">
@@ -1121,6 +1186,12 @@
       <x:c r="P12" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="Q12" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R12" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="13" spans="1:146" x14ac:dyDescent="0.25">
       <x:c r="B13" s="14" t="s">
@@ -1168,7 +1239,13 @@
       <x:c r="P13" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="AC13" s="17" t="s"/>
+      <x:c r="Q13" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R13" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AE13" s="17" t="s"/>
     </x:row>
     <x:row r="14" spans="1:146" x14ac:dyDescent="0.25">
       <x:c r="B14" s="14" t="s">
@@ -1216,10 +1293,16 @@
       <x:c r="P14" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="Z14" s="16" t="s"/>
-      <x:c r="AA14" s="16" t="s"/>
+      <x:c r="Q14" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R14" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="AB14" s="16" t="s"/>
       <x:c r="AC14" s="16" t="s"/>
+      <x:c r="AD14" s="16" t="s"/>
+      <x:c r="AE14" s="16" t="s"/>
     </x:row>
     <x:row r="15" spans="1:146">
       <x:c r="B15" s="14" t="s">
@@ -1267,6 +1350,12 @@
       <x:c r="P15" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="Q15" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R15" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="16" spans="1:146">
       <x:c r="B16" s="14" t="s">
@@ -1312,6 +1401,12 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P16" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q16" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R16" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -1439,10 +1534,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="P2" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="Q2" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:36" x14ac:dyDescent="0.25">
@@ -1450,49 +1545,49 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C3" s="18" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D3" s="19" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E3" s="19" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F3" s="19" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G3" s="19" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="D3" s="19" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="E3" s="19" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="F3" s="19" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G3" s="19" t="s">
+      <x:c r="H3" s="19" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="I3" s="19" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="H3" s="19" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="I3" s="19" t="s">
+      <x:c r="J3" s="19" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="J3" s="19" t="s">
+      <x:c r="K3" s="19" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="K3" s="19" t="s">
+      <x:c r="L3" s="19" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="M3" s="19" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="N3" s="19" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="L3" s="19" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="M3" s="19" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="N3" s="19" t="s">
+      <x:c r="O3" s="19" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="O3" s="19" t="s">
+      <x:c r="P3" s="19" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="P3" s="19" t="s">
-        <x:v>23</x:v>
-      </x:c>
       <x:c r="Q3" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:36">
@@ -1500,7 +1595,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C4" s="18" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D4" s="19" t="s">
         <x:v>20</x:v>
@@ -1524,7 +1619,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="K4" s="19" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="L4" s="19" t="s">
         <x:v>20</x:v>
@@ -1533,16 +1628,16 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="N4" s="19" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="O4" s="19" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="P4" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="Q4" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:36">
@@ -1550,7 +1645,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C5" s="18" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D5" s="19" t="s">
         <x:v>20</x:v>
@@ -1577,10 +1672,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="L5" s="19" t="s">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="M5" s="19" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="N5" s="19" t="s">
         <x:v>20</x:v>
@@ -1589,10 +1684,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="P5" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="Q5" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:36">
@@ -1639,10 +1734,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="P6" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="Q6" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:36">
@@ -1689,10 +1784,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="P7" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="Q7" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:36">
@@ -1739,10 +1834,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="P8" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="Q8" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:36">
@@ -1753,46 +1848,46 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D9" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E9" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F9" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G9" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H9" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="I9" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="J9" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="K9" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="L9" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="M9" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="N9" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="O9" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="P9" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="Q9" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:36">
@@ -1839,10 +1934,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="P10" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="Q10" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:36">
@@ -1889,10 +1984,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="P11" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="Q11" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:36">
@@ -1939,10 +2034,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="P12" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="Q12" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:36">
@@ -1989,10 +2084,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="P13" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="Q13" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:36">
@@ -2039,10 +2134,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="P14" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="Q14" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:36">
@@ -2089,10 +2184,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="P15" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="Q15" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:36">
@@ -2139,10 +2234,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="P16" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="Q16" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
